--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -451,407 +451,547 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>000934</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>国富大中华精选混合QDII</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>87.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>006370</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>87.15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>010671</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>262001</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.86</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005259</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信龙头企业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001605</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006039</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>009076</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>工银瑞信圆兴混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>109.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>富兰克林国海沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>113.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7406</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.79</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>009029</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>工银瑞信高质量成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>31.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>85.85</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>6.20</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006890</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根领先优选混合</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519696</t>
+          <t>009030</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
+          <t>工银瑞信高质量成长混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>5</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002598</t>
+          <t>519696</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安消费精选混合A</t>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.76</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002599</t>
+          <t>006890</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安消费精选混合C</t>
+          <t>上投摩根领先优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.76</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009029</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合A</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009030</t>
+          <t>002598</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合C</t>
+          <t>平安消费精选混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009076</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银瑞信圆兴混合</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>90.78</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.70</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>002599</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>平安消费精选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5695</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9168</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7559</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5503</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3006,4 +3007,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3671,4 +3672,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3680,7 +3681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3691,17 +3692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3711,14 +3732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.46</v>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3727,14 +3770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.91</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3743,14 +3808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.42</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3759,13 +3846,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.39</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4307,7 +4308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4318,17 +4319,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4338,14 +4359,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.67</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4354,14 +4397,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.46</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4370,14 +4435,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.91</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4386,14 +4473,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.42</v>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8727</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4402,13 +4511,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1932</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.39</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4858,7 +4859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,17 +4870,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4889,14 +4910,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.7</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4905,14 +4948,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.67</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4921,14 +4986,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.46</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3417</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4937,14 +5024,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.91</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4953,14 +5062,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.42</v>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4969,13 +5100,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5848</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.39</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.93</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>54.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3085</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000934</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5377</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.67</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006370</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5377</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.46</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2196</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2196</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.42</v>
       </c>
     </row>
     <row r="8">
@@ -736,264 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1663</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006039</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1519</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005259</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信龙头企业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1225</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1131</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.39</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1058,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009076</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信圆兴混合</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>109.20</t>
+          <t>39.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3306</t>
+          <t>2.7060</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1096,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>113.25</t>
+          <t>39.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7406</t>
+          <t>2.7060</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1134,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>009076</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>工银瑞信圆兴混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.97</t>
+          <t>62.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>2.3417</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1172,32 +770,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.97</t>
+          <t>39.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9113</t>
+          <t>1.2890</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1210,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009029</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合A</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8439</t>
+          <t>0.8308</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1248,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.94</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.79</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7874</t>
+          <t>0.7002</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1286,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>009029</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>工银瑞信高质量成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5865</t>
+          <t>0.5848</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1324,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.4672</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1362,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>013613</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>宝盈国家安全沪港深股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2739</t>
+          <t>0.4672</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1400,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2195</t>
+          <t>0.2364</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1438,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1897</t>
+          <t>0.1607</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1476,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009030</t>
+          <t>009240</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合C</t>
+          <t>泰康蓝筹优势一年持有期股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1095</t>
+          <t>0.0869</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1514,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1552,32 +1150,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519696</t>
+          <t>009030</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
+          <t>工银瑞信高质量成长混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0696</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1590,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006890</t>
+          <t>011969</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根领先优选混合</t>
+          <t>建信港股通精选混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.55</t>
+          <t>83.50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0611</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1628,32 +1226,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>005259</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>建信龙头企业股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>89.58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0579</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1666,36 +1264,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002598</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>平安消费精选混合A</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.76</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1704,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1742,32 +1340,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>011970</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>建信港股通精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>83.50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1780,36 +1378,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002599</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>平安消费精选混合C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.76</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1818,6 +1416,1846 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8727</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1932</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3006,1846 +4444,6 @@
       </c>
       <c r="H31" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信圆丰三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>97.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4667</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>100.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.4518</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5112</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.5112</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002803</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>58.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.1537</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>169102</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红睿阳三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8884</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009029</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7376</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6756</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5870</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5870</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009983</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>永赢港股通品质生活慧选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>13.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>75.94</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3473</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2252</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1442</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009030</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0878</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007893</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>平安估值精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007894</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安估值精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>119.89</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.3210</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>41.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5810</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>41.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5810</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>46.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4757</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2598</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1313</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008861</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0729</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009030</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005259</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信龙头企业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.44</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010093</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.05</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>83.24</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2580</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9734</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9734</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信圆丰三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>74.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8727</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>44.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1932</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5660</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009029</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4564</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2054</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0648</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009030</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信高质量成长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011969</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信港股通精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>57.64</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005259</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信龙头企业股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011970</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信港股通精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>57.64</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4478,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4910,36 +4508,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>009076</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>工银瑞信圆兴混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.62</t>
+          <t>109.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7060</t>
+          <t>3.3306</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4948,36 +4546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>富兰克林国海沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.62</t>
+          <t>113.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>86.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7060</t>
+          <t>2.7406</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4986,36 +4584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009076</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信圆兴混合</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.28</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>83.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.3417</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5024,32 +4622,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.54</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>83.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2890</t>
+          <t>0.9113</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -5062,36 +4660,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>009029</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>工银瑞信高质量成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.64</t>
+          <t>31.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8308</t>
+          <t>0.8439</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5100,36 +4698,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>86.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7002</t>
+          <t>0.7874</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -5138,36 +4736,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009029</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合A</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.38</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>85.85</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5848</t>
+          <t>0.5865</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -5176,36 +4774,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4672</t>
+          <t>0.3757</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -5214,36 +4812,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013613</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈国家安全沪港深股票C</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>83.96</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4672</t>
+          <t>0.2739</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -5252,36 +4850,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>519139</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>海富通沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2364</t>
+          <t>0.2195</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5290,36 +4888,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>85.85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1607</t>
+          <t>0.1897</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -5328,36 +4926,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009240</t>
+          <t>009030</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康蓝筹优势一年持有期股票</t>
+          <t>工银瑞信高质量成长混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0869</t>
+          <t>0.1095</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -5366,36 +4964,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0764</t>
+          <t>0.0646</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -5404,32 +5002,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009030</t>
+          <t>519696</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信高质量成长混合C</t>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0696</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -5442,36 +5040,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011969</t>
+          <t>006890</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信港股通精选混合A</t>
+          <t>上投摩根领先优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>83.50</t>
+          <t>85.55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0611</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -5480,32 +5078,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005259</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建信龙头企业股票</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0579</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -5518,36 +5116,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>002598</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>平安消费精选混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>82.76</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -5556,36 +5154,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -5594,32 +5192,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011970</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信港股通精选混合C</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.50</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -5632,36 +5230,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>002599</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>平安消费精选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>82.76</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5675,7 +5273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5686,17 +5284,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5706,14 +5324,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.93</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5722,14 +5362,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7</v>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5738,14 +5400,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.67</v>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5754,14 +5438,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.46</v>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5770,14 +5476,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.91</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5786,14 +5514,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.42</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -5802,14 +5552,264 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.39</v>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>12.93</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>10.67</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>18.46</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>24.91</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>11.42</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.39</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银圆兴混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +2722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2591,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3255,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4451,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5267,7 +6024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03606-福耀玻璃.xlsx
+++ b/数据整理/stocks/港股/03606-福耀玻璃.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>10.28</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>12.93</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>10.67</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>18.46</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>24.91</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>11.42</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,580 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1184,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银圆兴混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4978</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4978</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2172,7 +3137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2722,7 +3687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3348,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4012,7 +4977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5208,7 +6173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6022,554 +6987,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>54.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3085</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000934</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5377</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006370</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5377</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2196</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2196</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1663</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006039</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1519</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005259</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信龙头企业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1225</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519139</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1131</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>